--- a/medicine/Enfance/Heliane_Bernard/Heliane_Bernard.xlsx
+++ b/medicine/Enfance/Heliane_Bernard/Heliane_Bernard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliane Bernard est une historienne française spécialiste d’histoire culturelle.
 Spécialiste de l’image, ses travaux sur La France rurale et les peintres mettent à jour les mythes et les idéologies liés à la terre et montrent la prégnance et l’évolution des schémas culturels attachés au monde rural.
 Parallèlement à ses travaux d’historienne, elle collabore aussi en tant que critique d’art à diverses revues et catalogues d’expositions d’art contemporains.
 En 1990, elle fonde la revue d’art Montrer, puis en 1991 avec Christian-Alexandre Faure, la revue Dada.
 Romancière, elle est l'auteure, avec Christian-Alexandre Faure, de la trilogie « Les Dents noires » dont le titre évoque les caractères maculés d’encre dont se servaient les imprimeurs. À la fois saga familiale, avec ses aventures, ses drames et ses passions, et épopée de l’imprimerie et du livre à l’aube de la Renaissance, la trilogie des Dents noires donnent la mesure d’une société en pleine mutation dans laquelle le livre, outil de pouvoir et de savoir, déchaîne les appétits et les imaginaires et est source de nouveaux enjeux politiques, religieux et culturels.
-Après La Colline aux corbeaux[1] et L'Homme au gant[2], L’Encre et le feu[3] clôt une fresque historique et romanesque dont le personnage principal est le Livre. Les héros Dioneo, Iulio et Diana, œuvrent entre Lyon, Venise et Paris, lieux essentiels pour l’imprimerie au XVIe siècle, (et Constantinople, dans le 3e volet).
-Le roman La Colline aux corbeaux a été salué par le prix "Sable Noir"[4] au Salon du Polar 83 en 2019[5]. Elle est aussi auteur de livres pour la jeunesse.
+Après La Colline aux corbeaux et L'Homme au gant, L’Encre et le feu clôt une fresque historique et romanesque dont le personnage principal est le Livre. Les héros Dioneo, Iulio et Diana, œuvrent entre Lyon, Venise et Paris, lieux essentiels pour l’imprimerie au XVIe siècle, (et Constantinople, dans le 3e volet).
+Le roman La Colline aux corbeaux a été salué par le prix "Sable Noir" au Salon du Polar 83 en 2019. Elle est aussi auteur de livres pour la jeunesse.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De 1982 à 1989 elle organise à Lyon avec Alexandre Faure diverses expositions d’art contemporain à travers l’Association « Champs des Arts ».
 En 1989, elle soutient sa thèse de doctorat d’Histoire de l’université Lyon-II, intitulée la Terre et ses mythes : voyage au centre de l’image (ou le thème rural dans la peinture française de 1920 à 1955). Lauréate du Prix de Thèse Sully-Olivier de Serres, 1989, sa thèse bénéficie d’une aide à l’édition offerte par le Ministère de l’Agriculture. Elle parait en 1990 aux Presses Universitaires de Lyon (P.U.L.) sous le titre La terre toujours réinventée. La France rurale et les peintres, 1920-1955. Une histoire de l'imaginaire.
@@ -526,11 +540,11 @@
 En 1991, elle crée avec Alexandre Faure la revue Dada, première revue d’art pour enfants.
 En 1994, elle participe pour le XXe siècle à l’exposition « Paysages, paysans : L’art et la terre en Europe du Moyen Âge au XXe siècle », (sous la direction d’Emmanuel Le Roy Ladurie), à la Bibliothèque nationale de France (25 mars au 26 juin 1994).
 La même année, elle rejoint  avec Alexandre Faure les éditions Mango, où elle poursuit son rôle de rédactrice en chef de la revue Dada.
-En juin 2003, à la suite du rachat des éditions Mango par le Groupe Média participations, elle démissionne, ainsi que toute la rédaction, de la Revue Dada[6].
-En 2004, elle rejoint avec Alexandre Faure les éditions du Seuil pour créer la revue 9 de Cœur, revue de création et d’initiation : Arts, littérature, musique... de 9 à 99 ans[7].
+En juin 2003, à la suite du rachat des éditions Mango par le Groupe Média participations, elle démissionne, ainsi que toute la rédaction, de la Revue Dada.
+En 2004, elle rejoint avec Alexandre Faure les éditions du Seuil pour créer la revue 9 de Cœur, revue de création et d’initiation : Arts, littérature, musique... de 9 à 99 ans.
 (La revue est arrêtée au no 5 (Correspondance et Art postal) en 2005 lors du rachat des éditions du Seuil par les éditions de la Martinière à l’automne 2005.)
-En 2006, elle fonde avec Alexandre Faure le secteur éditoriale “ Tatou ” au sein des éditions Michalon à Paris[8]. Ce secteur destiné à la jeunesse propose une initiation des enfants aux arts plastiques, à la poésie, et à la littérature.
-En 2008 elle crée avec Alexandre Faure pour les éditions Milan, une nouvelle collection d’initiation à l’art : Phil’Art[9] où ils abordent les thèmes essentiels de la philosophie[10].</t>
+En 2006, elle fonde avec Alexandre Faure le secteur éditoriale “ Tatou ” au sein des éditions Michalon à Paris. Ce secteur destiné à la jeunesse propose une initiation des enfants aux arts plastiques, à la poésie, et à la littérature.
+En 2008 elle crée avec Alexandre Faure pour les éditions Milan, une nouvelle collection d’initiation à l’art : Phil’Art où ils abordent les thèmes essentiels de la philosophie.</t>
         </is>
       </c>
     </row>
@@ -560,43 +574,185 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Colline aux corbeaux[11], roman historique co-écrit avec Christian-Alexandre Faure, Premier tome de la saga "Les dents noires", publié aux éditions Libel, 2018, 383p.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colline aux corbeaux, roman historique co-écrit avec Christian-Alexandre Faure, Premier tome de la saga "Les dents noires", publié aux éditions Libel, 2018, 383p.
 La Colline aux corbeaux a fait l'objet d'une édition poche aux éditions J'ai lu et d'une édition audio aux éditions Fablyo 
-L'Homme au gant[12], roman historique co-écrit avec Christian-Alexandre Faure, Volume 2 de la saga Les Dents noires, éditions Libel, Lyon, 2019, 416 p.
+L'Homme au gant, roman historique co-écrit avec Christian-Alexandre Faure, Volume 2 de la saga Les Dents noires, éditions Libel, Lyon, 2019, 416 p.
 L’Homme au gant a fait l'objet d'une édition poche aux éditions J'ai lu et d'une édition audio aux éditions Fablyo.
-L’Encre et le feu[3], roman historique co-écrit avec Christian-Alexandre Faure, Volume 3 de la saga Les Dents noires, éditions Libel, Lyon, 2021, 400 p.
+L’Encre et le feu, roman historique co-écrit avec Christian-Alexandre Faure, Volume 3 de la saga Les Dents noires, éditions Libel, Lyon, 2021, 400 p.
 La trilogie romanesque "Les Dents noires" a fait l'objet d'une édition poche chez J'ai lu.
-Publications scientifiques
-Jean Amblard, salarié du Musée national des arts et traditions populaires, 1943-1944[1] Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, n°3-4, 1984, p. 117–145[13]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Amblard, salarié du Musée national des arts et traditions populaires, 1943-1944 Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, n°3-4, 1984, p. 117–145
  L’architecture franc-comtoise dans la peinture de J.C. Bourgeois , In L'habitat rural : nouveaux modèles, nouveaux usages, Colloque national de l’Association des Ruralistes Français, Amiens, 1985
- Introduction à l’iconographie du monde rural dans la peinture française (1920-1955), Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, no 2, 1985, p. 45–74[14]
+ Introduction à l’iconographie du monde rural dans la peinture française (1920-1955), Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, no 2, 1985, p. 45–74
  Peinture et ruralité : deux images des années trente , Image et Histoire, Actes du colloque Paris-Censier, mai 1986, Paris Publisud, 1987, Sources travaux historiques, no 9-10, 1987, 319p., p. 186–194
- Symbolisme de la charrue et du labour : des images de la terre fécondée, 1920-1940 , Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, no 2-3, 1987, p. 99–117[15]
+ Symbolisme de la charrue et du labour : des images de la terre fécondée, 1920-1940 , Bulletin du Centre d'Histoire économique et sociale de la région lyonnaise, Lyon, no 2-3, 1987, p. 99–117
  Révolution : Liberté, liberté chérie : une iconographie de 1792 , Résonance, Lyon, mars 1989, no 40, p. 65–70
 La Terre et ses mythes : voyage au centre de l’image (ou le thème rural dans la peinture française de 1920 à 1955), Thèse Universitaire de Doctorat d’Histoire, Université Lyon II, 1989, 2 vol., 824 p., 372 p.
-La terre toujours réinventée, la France rurale et les peintres 1920-1955, une histoire de l’imaginaire, Lyon, Presses universitaires de Lyon, 1990, 340 p  (ISBN 978-2729703714)[16].
+La terre toujours réinventée, la France rurale et les peintres 1920-1955, une histoire de l’imaginaire, Lyon, Presses universitaires de Lyon, 1990, 340 p  (ISBN 978-2729703714).
  L'Angélus de Millet : Conditions d'un discours mythique (1856-1993) , Ethnologie française, Paris, tome XXIV, 2, avril-juin 1994, p. 243–253
- L’imaginaire de la terre au XXe siècle , in  Paysages, paysans : L’art et la terre en Europe du Moyen Âge au XXe siècle, (sous la direction d’Emmanuel Le Roy Ladurie), Paris, Bibliothèque Nationale de France et Réunion des Musées Nationaux, édit. 1994, p. 254–285
-Articles dans les revues d'art
-Alliage
+ L’imaginaire de la terre au XXe siècle , in  Paysages, paysans : L’art et la terre en Europe du Moyen Âge au XXe siècle, (sous la direction d’Emmanuel Le Roy Ladurie), Paris, Bibliothèque Nationale de France et Réunion des Musées Nationaux, édit. 1994, p. 254–285</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles dans les revues d'art</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alliage
 Artension (du no 1 décembre 1987 à novembre 1990)
 Arts Program, Paris, du no 1 octobre 1992 au no 4 mars 1993
 Dada, Première Revue d’Art pour Enfants : (du no 1 décembre 1991 au no 93 juin 2003)
 Kanal magazine, Le journal des cheyennes
 Montrer: revue d’Art - Expression – Figuration : (du no 1 novembre 1990 au no 9 octobre 1991)
 Rive droite Rive gauche, Paris, 1992
-9 de Cœur, seuil édit., (du no 1 octobre 2004 "Art &amp; musique" au no 5 "Correspondance &amp; Art postal" septembre 2005.)
-Participations à des ouvrages collectifs
-Coauteur avec Bernard Ceysson, Robert Bourasseau : Peintures, 1996
+9 de Cœur, seuil édit., (du no 1 octobre 2004 "Art &amp; musique" au no 5 "Correspondance &amp; Art postal" septembre 2005.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Participations à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Coauteur avec Bernard Ceysson, Robert Bourasseau : Peintures, 1996
  Wirbel, l’Afrique et l’enfant in Véronique Wirbel : 1950-1990, (ouvrage collectif, préface de Francis Parent), éditions Fus’Art, 1997
-Tony Garnier peintre : mais il y a aussi l'image , in Cité de la Création : Musée urbain Tony garnier, Des HLM que l'on visite…, Éditions lyonnaises d'art et d'histoire, 1999
-Ouvrages pour la jeunesse
- Allons z’enfants de la Patrie , (illustrations de Véronique Wirbel), album de coloriages, Lyon, champs des arts édit., 1989
+Tony Garnier peintre : mais il y a aussi l'image , in Cité de la Création : Musée urbain Tony garnier, Des HLM que l'on visite…, Éditions lyonnaises d'art et d'histoire, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliane_Bernard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allons z’enfants de la Patrie , (illustrations de Véronique Wirbel), album de coloriages, Lyon, champs des arts édit., 1989
  Le Journal de Bébé , (illustrations de Claudie Guyennon-Duchêne), Paris, Mango, Album Dada, 1997  (ISBN 978-2740406939)
 Le Brel, (illustrations de Tony Soulié), Paris, Mango jeunesse, Album Dada, 2000
- Les métamorphoses d’Aladin ou comment il fut passé au caviar , (illustrations de Jean François Martin), Paris, éditions Michalon, album Tatou, 2006  (ISBN 978-2841863389)[17]
- Guernica , (dessins d’Olivier Charpentier), Paris, éditions Michalon, album Tatou, 2007  (ISBN 978-8484646549)[18]
+ Les métamorphoses d’Aladin ou comment il fut passé au caviar , (illustrations de Jean François Martin), Paris, éditions Michalon, album Tatou, 2006  (ISBN 978-2841863389)
+ Guernica , (dessins d’Olivier Charpentier), Paris, éditions Michalon, album Tatou, 2007  (ISBN 978-8484646549)
 Coauteur avec Alexandre Faure
  De Gaulle et la France , Mango, collection "Regard d'aujourd'hui", 1995  (ISBN 978-2910635558)
  Jésus et son époque , Mango, collection "Regard d'aujourd'hui", 1997  (ISBN 978-2740406878)
